--- a/DIAGRAMA GANT/gant.xlsx
+++ b/DIAGRAMA GANT/gant.xlsx
@@ -117,8 +117,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -227,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -246,6 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +546,7 @@
     <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
@@ -555,16 +564,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1023,5 +1032,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>